--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,48 +907,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>03:00:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06:00:00</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
